--- a/DATA_goal/Junction_Flooding_405.xlsx
+++ b/DATA_goal/Junction_Flooding_405.xlsx
@@ -967,103 +967,103 @@
         <v>44782.11111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.4</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.69</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.84</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.2</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.37</v>
       </c>
       <c r="Q5" s="4" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>37.31</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="R5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.34</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.81</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.01</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.95</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_405.xlsx
+++ b/DATA_goal/Junction_Flooding_405.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.09027777778</v>
+        <v>45086.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>0.596</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.131</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.703</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>0.594</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.673</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>2.927</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>1.311</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>0.574</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>0.838</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>0.781</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.626</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>2.165</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>0.638</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>1.735</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>2.278</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>0.467</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>0.214</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>0.476</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>2.624</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>0.591</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.09722222222</v>
+        <v>45086.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>20.495</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>15.411</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.729</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>44.222</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>36.746</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>15.649</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>53.774</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>25.504</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>11.844</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>16.752</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>18.027</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>18.716</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>5.149</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>16.317</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>22.575</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>12.968</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.319</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>238.235</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>44.446</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>15.053</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>30.814</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>16.608</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>2.124</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>27.869</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>13.163</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>11.444</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>13.592</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>18.89</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.343</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>49.44</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>8.744999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.10416666666</v>
+        <v>45086.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>22.935</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>17.239</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.792</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>49.688</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>41.226</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>17.723</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>69.82899999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>28.205</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>12.984</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>18.727</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>20.126</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>21.063</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>5.779</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>18.175</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>25.459</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>14.622</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.705</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>267.092</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>50.094</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>16.779</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>34.41</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>18.259</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>2.368</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0</v>
+        <v>34.385</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>14.707</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>12.843</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>15.207</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>21.135</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.223</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0</v>
+        <v>64.095</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>9.679</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.11111111111</v>
+        <v>45086.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.38</v>
+        <v>10.95</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.68</v>
+        <v>8.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.38</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>6.98</v>
+        <v>23.68</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>5.4</v>
+        <v>19.69</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.8</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.69</v>
+        <v>37.53</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.35</v>
+        <v>13.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.18</v>
+        <v>6.36</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.07</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.84</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.2</v>
+        <v>10.03</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.77</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.98</v>
+        <v>8.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.37</v>
+        <v>12.12</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.88</v>
+        <v>6.9</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>2.26</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>1.95</v>
+        <v>0.32</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>37.31</v>
+        <v>124.11</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>6.48</v>
+        <v>24.02</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.54</v>
+        <v>8.09</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.87</v>
+        <v>16.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.67</v>
+        <v>8.83</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.39</v>
+        <v>1.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.39</v>
+        <v>17.87</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.94</v>
+        <v>7.05</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.34</v>
+        <v>6.15</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.45</v>
+        <v>7.31</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.81</v>
+        <v>10.13</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>1.34</v>
+        <v>0.17</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.01</v>
+        <v>34.64</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.95</v>
+        <v>4.69</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.11805555555</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.52</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.02</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.02</v>
+        <v>9.83</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_405.xlsx
+++ b/DATA_goal/Junction_Flooding_405.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,37 +443,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
-    <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
-    <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45086.50694444445</v>
+        <v>44782.09027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.596</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5659999999999999</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.131</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.703</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.594</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.673</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.927</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.311</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.574</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.838</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.092</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.061</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.781</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.626</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.165</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.638</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.735</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.278</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.419</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.467</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.476</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.624</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.591</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45086.51388888889</v>
+        <v>44782.09722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.495</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.411</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.729</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>44.222</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.746</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.649</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>53.774</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>25.504</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.844</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.752</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.027</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>18.716</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.149</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.317</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.575</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.968</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.319</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>238.235</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>44.446</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.053</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>30.814</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.608</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.124</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>27.869</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.163</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.444</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.592</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.89</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.343</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>49.44</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.744999999999999</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45086.52083333334</v>
+        <v>44782.10416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>22.935</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.239</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.792</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>49.688</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>41.226</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.723</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>69.82899999999999</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>28.205</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.984</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.727</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.126</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>21.063</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.779</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.175</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>25.459</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.622</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.705</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>267.092</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>50.094</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>16.779</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>34.41</v>
+        <v>0</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.259</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.368</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.385</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.707</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.843</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.207</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.135</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.223</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>64.095</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.679</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45086.52777777778</v>
+        <v>44782.11111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.95</v>
+        <v>3.38</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.23</v>
+        <v>2.68</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.891</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.68</v>
+        <v>6.978</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.69</v>
+        <v>5.401</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>1.797</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>37.53</v>
+        <v>6.694</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.58</v>
+        <v>4.349</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.36</v>
+        <v>2.181</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>4.067</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>3.841</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.03</v>
+        <v>3.202</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.77</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.76</v>
+        <v>2.977</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.12</v>
+        <v>4.375</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.9</v>
+        <v>3.883</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>2.258</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.32</v>
+        <v>1.95</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>124.11</v>
+        <v>37.311</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>24.02</v>
+        <v>6.478</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.09</v>
+        <v>2.536</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.63</v>
+        <v>4.868</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.83</v>
+        <v>3.666</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.13</v>
+        <v>0.39</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.87</v>
+        <v>3.39</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.05</v>
+        <v>1.94</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.15</v>
+        <v>2.343</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.31</v>
+        <v>2.451</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.13</v>
+        <v>3.807</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.344</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>34.64</v>
+        <v>6.013</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.69</v>
+        <v>1.946</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.83</v>
+        <v>2.696</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.11805555555</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>89.52</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.02</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_405.xlsx
+++ b/DATA_goal/Junction_Flooding_405.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,37 +443,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.09027777778</v>
+        <v>45086.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>0.596</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.131</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.703</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>0.594</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.673</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>2.927</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>1.311</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>0.574</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>0.838</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>0.781</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.626</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>2.165</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>0.638</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>1.735</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>2.278</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>0.467</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>0.214</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>0.476</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>2.624</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>0.591</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.09722222222</v>
+        <v>45086.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>20.495</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>15.411</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.729</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>44.222</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>36.746</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>15.649</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>53.774</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>25.504</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>11.844</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>16.752</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>18.027</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>18.716</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>5.149</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>16.317</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>22.575</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>12.968</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.319</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>238.235</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>44.446</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>15.053</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>30.814</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>16.608</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>2.124</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>27.869</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>13.163</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>11.444</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>13.592</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>18.89</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.343</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>49.44</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>8.744999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.10416666666</v>
+        <v>45086.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>22.935</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>17.239</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.792</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>49.688</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>41.226</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>17.723</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>69.82899999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>28.205</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>12.984</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>18.727</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>20.126</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>21.063</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>5.779</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>18.175</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>25.459</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>14.622</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.705</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>267.092</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>50.094</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>16.779</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>34.41</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>18.259</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>2.368</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0</v>
+        <v>34.385</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>14.707</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>12.843</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>15.207</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>21.135</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.223</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0</v>
+        <v>64.095</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>9.679</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.11111111111</v>
+        <v>45086.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.38</v>
+        <v>10.95</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.68</v>
+        <v>8.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.891</v>
+        <v>0.38</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>6.978</v>
+        <v>23.68</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>5.401</v>
+        <v>19.69</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.797</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.694</v>
+        <v>37.53</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.349</v>
+        <v>13.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.181</v>
+        <v>6.36</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.067</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.841</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.202</v>
+        <v>10.03</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.6889999999999999</v>
+        <v>2.77</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.977</v>
+        <v>8.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.375</v>
+        <v>12.12</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.883</v>
+        <v>6.9</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>2.258</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>1.95</v>
+        <v>0.32</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>37.311</v>
+        <v>124.11</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>6.478</v>
+        <v>24.02</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.536</v>
+        <v>8.09</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.868</v>
+        <v>16.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.666</v>
+        <v>8.83</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.39</v>
+        <v>1.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.39</v>
+        <v>17.87</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.94</v>
+        <v>7.05</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.343</v>
+        <v>6.15</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.451</v>
+        <v>7.31</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.807</v>
+        <v>10.13</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>1.344</v>
+        <v>0.17</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.013</v>
+        <v>34.64</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.946</v>
+        <v>4.69</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.696</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.11805555555</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.52</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.02</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.02</v>
+        <v>9.83</v>
       </c>
     </row>
   </sheetData>
